--- a/Data/g20.12.xlsx
+++ b/Data/g20.12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,14 +609,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="C14" t="n">
-        <v>0.546</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C15" t="n">
-        <v>0.538</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C16" t="n">
-        <v>0.532</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C17" t="n">
-        <v>0.533</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.544</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C20" t="n">
-        <v>0.546</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C22" t="n">
-        <v>0.526</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C23" t="n">
-        <v>0.556</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C24" t="n">
-        <v>0.517</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="25">
@@ -756,36 +756,36 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C25" t="n">
-        <v>0.509</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="C26" t="n">
-        <v>0.569</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.572</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C28" t="n">
-        <v>0.543</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C29" t="n">
-        <v>0.539</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C31" t="n">
-        <v>0.551</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C32" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C33" t="n">
-        <v>0.581</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C34" t="n">
-        <v>0.524</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C36" t="n">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,49 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.528</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>2023</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>0.507</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
